--- a/new-stats/jaguares-de-cordoba.xlsx
+++ b/new-stats/jaguares-de-cordoba.xlsx
@@ -574,22 +574,62 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>29/01/2026</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jaguares</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Inter Bogota</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M3" t="n">
+        <v>11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>16</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>

--- a/new-stats/jaguares-de-cordoba.xlsx
+++ b/new-stats/jaguares-de-cordoba.xlsx
@@ -632,22 +632,62 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01/02/2026</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Jaguares</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>

--- a/new-stats/jaguares-de-cordoba.xlsx
+++ b/new-stats/jaguares-de-cordoba.xlsx
@@ -690,22 +690,62 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>09/02/2026</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jaguares</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>

--- a/new-stats/jaguares-de-cordoba.xlsx
+++ b/new-stats/jaguares-de-cordoba.xlsx
@@ -748,40 +748,120 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12/02/2026</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Jaguares</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>17/02/2026</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jaguares</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>18</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
